--- a/tiget/document/테이블명세-게시판목록.xlsx
+++ b/tiget/document/테이블명세-게시판목록.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KS50517\Documents\workspace\NodeJS\Tiget\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8727D816-899E-4627-8F8F-7ED30B538F4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F79E0929-BBB5-4C5B-9E91-1E311582E8FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="2850" yWindow="2850" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="테이블명세" sheetId="2" r:id="rId1"/>
@@ -680,7 +680,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -699,9 +699,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -724,9 +721,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
@@ -1147,7 +1141,7 @@
   <dimension ref="B1:L1048576"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1799,67 +1793,67 @@
   <sheetData>
     <row r="1" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="34" t="s">
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="34"/>
-      <c r="J2" s="36">
+      <c r="I2" s="32"/>
+      <c r="J2" s="34">
         <v>44886</v>
       </c>
-      <c r="K2" s="37"/>
-      <c r="L2" s="28" t="s">
+      <c r="K2" s="35"/>
+      <c r="L2" s="26" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="35" t="s">
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="35"/>
-      <c r="J3" s="38" t="s">
+      <c r="I3" s="33"/>
+      <c r="J3" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="39"/>
-      <c r="L3" s="16"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="14"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="31"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="29"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -1897,326 +1891,326 @@
       </c>
     </row>
     <row r="6" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="7">
+      <c r="B6" s="6">
         <v>1</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="H6" s="9"/>
+      <c r="H6" s="8"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
-      <c r="L6" s="13"/>
+      <c r="L6" s="12"/>
     </row>
     <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="8">
+      <c r="B7" s="7">
         <v>2</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="14"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="13"/>
     </row>
     <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="8">
+      <c r="B8" s="7">
         <v>3</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="14"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="13"/>
     </row>
     <row r="9" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="8">
+      <c r="B9" s="7">
         <v>4</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="H9" s="29"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="14"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="13"/>
     </row>
     <row r="10" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="8">
+      <c r="B10" s="7">
         <v>5</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="13"/>
+    </row>
+    <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="7">
+        <v>6</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="13"/>
+    </row>
+    <row r="12" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="7">
+        <v>7</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="13"/>
+    </row>
+    <row r="13" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="7">
+        <v>8</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="13"/>
+    </row>
+    <row r="14" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="7">
+        <v>9</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="13"/>
+    </row>
+    <row r="15" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="7">
+        <v>10</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="13"/>
+    </row>
+    <row r="16" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="7">
+        <v>11</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="13"/>
+    </row>
+    <row r="17" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="7">
+        <v>12</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="13"/>
+    </row>
+    <row r="18" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="7">
+        <v>13</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="13"/>
+    </row>
+    <row r="19" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="7">
+        <v>14</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="13"/>
+    </row>
+    <row r="20" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="7">
+        <v>15</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="13"/>
+    </row>
+    <row r="21" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="9">
+        <v>16</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D21" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E21" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F21" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="14"/>
-    </row>
-    <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="8">
-        <v>6</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="14"/>
-    </row>
-    <row r="12" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="8">
-        <v>7</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="14"/>
-    </row>
-    <row r="13" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="8">
-        <v>8</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="14"/>
-    </row>
-    <row r="14" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="8">
-        <v>9</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="14"/>
-    </row>
-    <row r="15" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="8">
-        <v>10</v>
-      </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="14"/>
-    </row>
-    <row r="16" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="8">
-        <v>11</v>
-      </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="14"/>
-    </row>
-    <row r="17" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="8">
-        <v>12</v>
-      </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="14"/>
-    </row>
-    <row r="18" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="8">
-        <v>13</v>
-      </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="14"/>
-    </row>
-    <row r="19" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="8">
-        <v>14</v>
-      </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="14"/>
-    </row>
-    <row r="20" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="8">
-        <v>15</v>
-      </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="14"/>
-    </row>
-    <row r="21" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="10">
-        <v>16</v>
-      </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="15"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="13"/>
     </row>
     <row r="24" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="1" t="s">
@@ -2224,153 +2218,153 @@
       </c>
     </row>
     <row r="26" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="18" t="s">
+      <c r="D26" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E26" s="18" t="s">
+      <c r="E26" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="18"/>
-      <c r="L26" s="19"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="17"/>
     </row>
     <row r="27" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="20">
+      <c r="B27" s="18">
         <v>1</v>
       </c>
-      <c r="C27" s="26">
+      <c r="C27" s="24">
         <v>44889</v>
       </c>
-      <c r="D27" s="27" t="s">
+      <c r="D27" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="E27" s="21" t="s">
+      <c r="E27" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="22"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="20"/>
     </row>
     <row r="28" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="20"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="22"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="20"/>
     </row>
     <row r="29" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="20"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="22"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="20"/>
     </row>
     <row r="30" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="20"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="22"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="20"/>
     </row>
     <row r="31" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="20"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="21"/>
-      <c r="L31" s="22"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="20"/>
     </row>
     <row r="32" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="20"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="21"/>
-      <c r="K32" s="21"/>
-      <c r="L32" s="22"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="20"/>
     </row>
     <row r="33" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="20"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="21"/>
-      <c r="K33" s="21"/>
-      <c r="L33" s="22"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="20"/>
     </row>
     <row r="34" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="20"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="21"/>
-      <c r="K34" s="21"/>
-      <c r="L34" s="22"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="20"/>
     </row>
     <row r="35" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="23"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="24"/>
-      <c r="I35" s="24"/>
-      <c r="J35" s="24"/>
-      <c r="K35" s="24"/>
-      <c r="L35" s="25"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="22"/>
+      <c r="L35" s="23"/>
     </row>
     <row r="1048576" spans="7:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G1048576" s="9"/>
+      <c r="G1048576" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="6">
